--- a/full_SN_categorization_all_methods.xlsx
+++ b/full_SN_categorization_all_methods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smarotta\PycharmProjects\edm_categorization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\python\edm_categorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1192DA-CCE5-483B-8A17-E20161F6C07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374CCF44-82D7-4F57-8A39-33E2485FE59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="570" windowWidth="28770" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="947">
   <si>
     <t>### TITLE:
  Restorative Justice Service- West Yorkshire
@@ -3454,6 +3454,15 @@
   </si>
   <si>
     <t>Pure ML categories</t>
+  </si>
+  <si>
+    <t>LLM ELMI Categorization</t>
+  </si>
+  <si>
+    <t>LLM ELMI Explanation</t>
+  </si>
+  <si>
+    <t>Rules Cateogies</t>
   </si>
 </sst>
 </file>
@@ -3816,10 +3825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,10 +3839,13 @@
     <col min="4" max="4" width="37" style="2" customWidth="1"/>
     <col min="5" max="5" width="40" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="46" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>831</v>
       </c>
@@ -3852,8 +3864,17 @@
       <c r="F1" s="4" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3873,7 +3894,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3893,7 +3914,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3913,7 +3934,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3930,7 +3951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3950,7 +3971,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3970,7 +3991,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3987,7 +4008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -4007,7 +4028,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -4027,7 +4048,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -4047,7 +4068,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -4064,7 +4085,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -4084,7 +4105,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -4101,7 +4122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -4121,7 +4142,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>

--- a/full_SN_categorization_all_methods.xlsx
+++ b/full_SN_categorization_all_methods.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\python\edm_categorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374CCF44-82D7-4F57-8A39-33E2485FE59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885776D-EFEF-4562-8524-5B1BA2EB0D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$200</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1224">
   <si>
     <t>### TITLE:
  Restorative Justice Service- West Yorkshire
@@ -3463,6 +3466,837 @@
   </si>
   <si>
     <t>Rules Cateogies</t>
+  </si>
+  <si>
+    <t>['Building demolition and wrecking work and earthmoving work', 'Environmental protection', 'Asbestos removal services']</t>
+  </si>
+  <si>
+    <t>['Generators']</t>
+  </si>
+  <si>
+    <t>['Miscellaneous engineering services']</t>
+  </si>
+  <si>
+    <t>['System and technical consultancy services']</t>
+  </si>
+  <si>
+    <t>['E-learning services']</t>
+  </si>
+  <si>
+    <t>['Environmental protection', 'Environmental management', 'Waste incinerators', 'Sewerage management services']</t>
+  </si>
+  <si>
+    <t>['Telecommunications service']</t>
+  </si>
+  <si>
+    <t>['System and support services']</t>
+  </si>
+  <si>
+    <t>['Collection agency services']</t>
+  </si>
+  <si>
+    <t>['Construction works for plants, mining and manufacturing and for buildings relating to the oil and gas industry']</t>
+  </si>
+  <si>
+    <t>['Travel agency and similar services']</t>
+  </si>
+  <si>
+    <t>['Cereals and potatoes']</t>
+  </si>
+  <si>
+    <t>['Electrical installation work', 'Solar energy']</t>
+  </si>
+  <si>
+    <t>['Dental practice and related services']</t>
+  </si>
+  <si>
+    <t>['Construction work for pipelines, communication and power lines, for highways, roads, airfields and railways; flatwork; Individual equipment']</t>
+  </si>
+  <si>
+    <t>['Miscellaneous furniture and equipment']</t>
+  </si>
+  <si>
+    <t>['Miscellaneous textile articles']</t>
+  </si>
+  <si>
+    <t>['Non-residential property renting or leasing services']</t>
+  </si>
+  <si>
+    <t>['Miscellaneous medical devices and products']</t>
+  </si>
+  <si>
+    <t>['Radio transmission apparatus with reception apparatus']</t>
+  </si>
+  <si>
+    <t>['Lift-maintenance services']</t>
+  </si>
+  <si>
+    <t>['Medical equipment and supplies']</t>
+  </si>
+  <si>
+    <t>['Repair and maintenance services of personal computers']</t>
+  </si>
+  <si>
+    <t>['Repair and maintenance services of military vehicles']</t>
+  </si>
+  <si>
+    <t>['Vehicle purchase']</t>
+  </si>
+  <si>
+    <t>['Repair and maintenance services of weapons and weapon systems']</t>
+  </si>
+  <si>
+    <t>['Building construction work', 'Roof works and other special trade construction works', 'Construction supervision services']</t>
+  </si>
+  <si>
+    <t>['Engineering-related scientific and technical services']</t>
+  </si>
+  <si>
+    <t>['Tanks, reservoirs, containers and pressure vessels']</t>
+  </si>
+  <si>
+    <t>['Catering equipment']</t>
+  </si>
+  <si>
+    <t>['Sewerage management services']</t>
+  </si>
+  <si>
+    <t>['Power distribution cables', 'Electrical supplies and accessories']</t>
+  </si>
+  <si>
+    <t>['Plumbing, Heating, and Air-Conditioning Contractors']</t>
+  </si>
+  <si>
+    <t>['Building construction work']</t>
+  </si>
+  <si>
+    <t>['Medical imaging services']</t>
+  </si>
+  <si>
+    <t>['Physical well-being services']</t>
+  </si>
+  <si>
+    <t>['Canteen services']</t>
+  </si>
+  <si>
+    <t>['Development consultancy services']</t>
+  </si>
+  <si>
+    <t>['Articles for the bathroom and kitchen']</t>
+  </si>
+  <si>
+    <t>['System and support services', 'Repair and maintenance services of weapons and weapon systems', 'Installation services of laboratory equipment']</t>
+  </si>
+  <si>
+    <t>['Mechanical spare parts except engines and engine parts']</t>
+  </si>
+  <si>
+    <t>['Repair and maintenance services of motor vehicles and associated equipment']</t>
+  </si>
+  <si>
+    <t>['Building demolition and wrecking work and earthmoving work', 'Construction work for plants, mining and manufacturing and for buildings relating to the oil and gas industry']</t>
+  </si>
+  <si>
+    <t>['Repair and maintenance services of special-purpose machinery and equipment']</t>
+  </si>
+  <si>
+    <t>['Facilities management software package and software package suite']</t>
+  </si>
+  <si>
+    <t>['Miscellaneous special-purpose machinery']</t>
+  </si>
+  <si>
+    <t>['Repair, maintenance and associated services related to aircraft and other equipment']</t>
+  </si>
+  <si>
+    <t>['Subscription services']</t>
+  </si>
+  <si>
+    <t>['Consultative engineering and construction services', 'Repair and maintenance services of weapons and weapon systems']</t>
+  </si>
+  <si>
+    <t>['Laboratory furniture', 'Ventilation equipment']</t>
+  </si>
+  <si>
+    <t>['Property management services of real estate on a fee or contract basis']</t>
+  </si>
+  <si>
+    <t>['Civil engineering machinery']</t>
+  </si>
+  <si>
+    <t>['Eye care products and corrective lenses']</t>
+  </si>
+  <si>
+    <t>['Special education services']</t>
+  </si>
+  <si>
+    <t>['Recreational-area services']</t>
+  </si>
+  <si>
+    <t>['Special-purpose machinery', 'Instruments for measuring flow, level and pressure of liquids and gases']</t>
+  </si>
+  <si>
+    <t>['Interpretation services']</t>
+  </si>
+  <si>
+    <t>['Educational software package', 'Personnel services except placement and supply services', 'Training facilities', 'E-learning services', 'Personal development training services']</t>
+  </si>
+  <si>
+    <t>['Special-purpose road passenger-transport services']</t>
+  </si>
+  <si>
+    <t>['Pre-school education services']</t>
+  </si>
+  <si>
+    <t>['Payment services']</t>
+  </si>
+  <si>
+    <t>['Personnel services except placement and supply services']</t>
+  </si>
+  <si>
+    <t>['Backup or recovery software package']</t>
+  </si>
+  <si>
+    <t>['Hotel accommodation services']</t>
+  </si>
+  <si>
+    <t>['Electrical apparatus for switching or protecting electrical circuits', 'Electrical supplies and accessories']</t>
+  </si>
+  <si>
+    <t>['Repair and maintenance services of vehicles']</t>
+  </si>
+  <si>
+    <t>['Repair and maintenance services of central heating']</t>
+  </si>
+  <si>
+    <t>['Environmental protection']</t>
+  </si>
+  <si>
+    <t>['Medical consumables']</t>
+  </si>
+  <si>
+    <t>['Repair and maintenance services of security equipment']</t>
+  </si>
+  <si>
+    <t>['Taxi Services']</t>
+  </si>
+  <si>
+    <t>['Analytical, scientific, mathematical or forecasting software package']</t>
+  </si>
+  <si>
+    <t>['Information systems', 'System and support services', 'Database services', 'System, storage and content management software package']</t>
+  </si>
+  <si>
+    <t>['Hire of goods-transport vehicles with driver']</t>
+  </si>
+  <si>
+    <t>['Television and audio-visual equipment']</t>
+  </si>
+  <si>
+    <t>['Fencing, railing and safety equipment installation work']</t>
+  </si>
+  <si>
+    <t>['Telecommunications equipment']</t>
+  </si>
+  <si>
+    <t>['Flatwork']</t>
+  </si>
+  <si>
+    <t>The offer is about providing Restorative Justice to victims of crime. Restorative Justice is a process that brings those harmed by crime, and those responsible for the harm, into communication, enabling everyone affected by a particular incident to play a part in repairing the harm and finding a positive way forward. Therefore, it is a Justice service.' }</t>
+  </si>
+  <si>
+    <t>The product is a herbicide, which is a type of chemical product used to kill unwanted plants. Therefore, it falls under the category of Specialised chemical products.' }</t>
+  </si>
+  <si>
+    <t>The offer is for Lean Six Sigma Training and Quality Improvement. Lean Six Sigma is a methodology that combines two powerful improvement methods: Lean and Six Sigma. Lean focuses on improving process flow and eliminating waste, while Six Sigma focuses on eliminating defects and reducing variability. The offer is for the Wisconsin Department of Justice, Division of Forensic Sciences Laboratory, which is a government agency. Therefore, the offer is for Business and management consultancy services.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is for the permitting, abatement, demolition, removal and environmentally appropriate disposal of all structures and debris located at Sentinel Peak. This falls under the category of Building demolition and wrecking work and earthmoving work as it involves the demolition and removal of structures and debris. It also falls under Environmental protection as the disposal of the debris needs to be environmentally appropriate. Lastly, it falls under Asbestos removal services as the abatement of asbestos is mentioned in the offer.' }</t>
+  </si>
+  <si>
+    <t>The product offer is for the purchase of a generator and automatic transfer switch. This falls under the category of 'Generators' as it is a special-purpose machinery that converts mechanical energy to electrical energy.' }</t>
+  </si>
+  <si>
+    <t>The offer is about the intention to award a contract to an existing provider following Direct Award Process C. The contract is for Community Audiology â€“ Support Services. The lifetime value of the contract is Â£40,000. The provider is RNID. Therefore, the offer falls under the category of Provider services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product/service offer is about designing and manufacturing Safepoint Desks, including delivery and installation. This is a consultative engineering and construction service, as it involves designing and manufacturing a custom solution for a specific purpose, and then installing it on-site.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>The offer is about providing cleaning services for Brodick Terminal. The description clearly states that the service is about ensuring cleanliness is upheld on-site at Brodick to ensure a satisfactory service is provided to our customers with health and safety at forefront of CalMacâ€™s priorities.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is about carrying out Pre-Procurement Market Engagement ('PPME') for Interim arrangements for the inspection, maintenance, and repair of mechanical, electrical and other technology equipment at the A505 Weston Hills Tunnel. The Council is seeking input from the market as to what might be the most attractive way of packaging and scoping any future opportunity for contracts. This input will help inform any resultant procurement process. The Council will consider the feedback received to help inform the Councilâ€™s options and further decision making. For the avoidance of doubt, this stage of the project is not part of a formal procurement process, and the Council is not committing, at this stage, to carrying out such a process.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t>This offer is about providing consultancy services to enable NESO to achieve its digitalization strategy and digital first ambitions. It includes the provision of all current services fulfilled by the National Grid Group, as well as supporting NESO as a full end to end business, and expanding these same services to cover the new roles within, and ambitions of, NESO. The required capabilities include Project Management Office, Business Analysis, Product Design and Management, Infrastructure Management and Support, Solution Delivery Management, Release Management, End-to-end user experience (UX) management, UVDB Codes to be registered on Achilles: 2.1.2.0 Software Development Services, 2.1.3.0 Software Support Services, 2.1.10.0 Data Collection &amp; Handling Services, 2.2.0 Business Consultancy, 2.2.3.0 IT Consultancy, 2.2.10.0 Security Consultancy, 2.2.22.0 Risk Management Consultancy, 2.6.41.0 Business Project Management. Therefore, it falls under the category of System and technical consultancy services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Student Dashboard System is a tool that allows students to manage their academic life, such as viewing their grades, schedules, and other academic information. This is a clear example of an e-learning service.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This offer is for waste and recycling collection services, which falls under the category of environmental protection and management. The offer also includes the provision of waste incinerators and sewerage management services.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is to replace plumbing and add electronic water controls to multiple buildings. The existing system is not in compliance with the current energy efficiency codes and standards.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t>The offer is about the development of an action plan for food production units in Carmarthenshire. The successful contractor will be required to scope the demand for food units and provide justification for the specific requirements. This is clearly a consultancy service.' }</t>
+  </si>
+  <si>
+    <t>The NRTS3 National Roadside Telecommunications Service provides connectivity between control rooms and roadside devices such as variable message signs, emergency telephones and CCTV cameras. This is a telecommunications service as it involves the transmission of signals over a distance for the purpose of communication.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product/service offer is for the provision of agency staff services, which falls under the category of Supply services of personnel including temporary staff.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t>The offer is for an educational software package for use by West Lancashire College for the entire duration of the contract term to enable the delivery of an online and distance learning offer to learners in non-devolved Authority Areas throughout England.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This offer is for on-going support and maintenance of SPS's Electronic Point of Sale (EPOS) system. This is a system service and support offer.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>The offer is for the provision of a Cash Collections Services Framework agreement, which is a service provided by a collection agency.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for the supply and delivery of reclaimed mill flags for the surfacing of a section of the Coast to Coast Path on Nine Standards Rigg near Kirkby Stephen. This is a construction work for a path, which falls under the category of 'Construction works for plants, mining and manufacturing and for buildings relating to the oil and gas industry' as it is a construction work for a specific purpose.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service offer is about providing adult cycle training sessions on-referral up to June 2025 for participants referred through the Nottingham Cityâ€™s Travel Well active travel social prescribing programme. This is a travel agency and similar services as it is providing travel related services.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service offer is for cutting interfering woody vegetation on a location containing 60 acres within one block. This is a construction work for buildings relating to the oil and gas industry because the Pennsylvania Game Commission, Forestry Division, which requires the services, is under the Department of Conservation and Natural Resources, which manages resources that can be used for oil and gas industry.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t>Instant oatmeal is a type of cereal. The fact that it's instant doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ doesn't change the fact that it's a cereal. The fact that it's for resale doesn't change the fact that it's a cereal. The fact that it's for commissaries doesn't change the fact that it's a cereal. The fact that it's statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries doesn't change the fact that it's a cereal. The fact that it's for resale in the TDCJ commissaries statewide doesn't change the fact that it's a cereal. The fact that it's for the TDCJ commissaries statewide doesn't change</t>
+  </si>
+  <si>
+    <t>The offer is about installing Solar Photovoltaic (PV) systems and Battery Energy Storage Systems (BESS) at Designated Sites, Pipeline Sites and Wider Estate. This is clearly an electrical installation work. Also, the offer is about installing Solar Photovoltaic (PV) systems which is a type of solar energy.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a Clinical Dental Technician service to His Majestyâ€™s Prison (HMP) environments on behalf of Kent Community Health NHS Foundation Trust (KCHFT) Dental Services. The provider will be required to visit HMP patients within four (4) HMP facilities located in Kent upon referral from the purchaser. The provider will be required to attend HMP patients referred to by KCHFT from Monday to Friday on mutually agreed dates and times during normal working hours mornings 0830-1200 hours. Therefore, it falls under Dental practice and related services.' }</t>
+  </si>
+  <si>
+    <t>The offer is for the supply and installation of parking signage as well as the relevant line painting. This falls under the category of Construction work for pipelines, communication and power lines, for highways, roads, airfields and railways; flatwork; Individual equipment.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is for interim arrangements for the inspection, maintenance, and repair of mechanical, electrical and other technology equipment at the A505 Weston Hills Tunnel. This falls under the category of construction works for plants, mining and manufacturing and for buildings relating to the oil and gas industry as it involves the maintenance and repair of mechanical and electrical equipment at a tunnel.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is about the design and manufacture of Safepoint Desks, which is a type of furniture. It does not fit into any of the other categories provided.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is about the management of cleaning services for two schools. The tender aims to provide a high standard of cleaning, deliver the cleaning services with consistency, good quality assurance systems in place, good communication at local and operations manager level with the Trust, two-way communication, daily interaction with the school's representative at each site, develop an effective method of handing over any special needs and comments on a daily basis, cleaners to work the hours that best suit the needs of the schools and maximise the work completed, and training and development of the teams at the schools. Therefore, it falls under the category of Cleaning services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RFQ is for periodical maintenance services to approximately 278 Date Palm Trees at the Embassy Compound. This falls under the category of Planting and maintenance services of green areas.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>The offer is a contract between two parties, the government and a contractor. The contractor is expected to provide a service or product to the government. The contract contains details about the service or product, the quantity, the price, the delivery date, and the payment terms. The contract also contains clauses about equal opportunity, buy American, and representations and certifications. The contractor is expected to comply with all the clauses in the contract. The contract is a business-related service that the government is procuring from the contractor. Therefore, it falls under the category of Miscellaneous business-related services.' }</t>
+  </si>
+  <si>
+    <t>The offer is for the repair of a RECTIFIER ASSY, which is a part for aircraft, spacecraft and helicopters. However, since the offer is specifically for the repair of this part, it falls under the category of repair and maintenance services of military aircrafts, missiles and spacecrafts.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a module assembly for an engine, which is a type of precision equipment. The offer includes warranty information and instructions for invoicing and receiving reports, which are typical for repair and maintenance services. The notice of priority rating for national defense, emergency preparedness, and energy program use also suggests a repair and maintenance context.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is for repair and maintenance services of the INDICATOR,AZIMUTH, which is a precision equipment.' }</t>
+  </si>
+  <si>
+    <t>The offer clearly states that it is for repair and maintenance services of a circuit card assembly, which is a type of precision equipment.' }</t>
+  </si>
+  <si>
+    <t>The offer is for repair and maintenance services of precision equipment, specifically circuit card assemblies. This is explicitly stated in the title and description of the offer.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a motor assembly, which is an electrical apparatus used to switch or protect electrical circuits. This is evident from the title and the description of the offer, which mentions that the item is a motor assembly and that it is electrical in nature. The description also mentions that the item is to be inspected in accordance with MIL-STD-130, which is a military standard for marking and identifying military property, further indicating that the item is intended for use in a military or defense context.' }</t>
+  </si>
+  <si>
+    <t>The product offer is for the procurement of the Snow Software Atlas product and consultancy services to assist in the management of Software, Hardware and Software as a Service (SaaS) assets. Therefore, it falls under Software-related services.' }</t>
+  </si>
+  <si>
+    <t>The product offer is for a special-purpose cable, which is used for a specific purpose in a communication system. It is not a general-purpose cable, and it is not used for other purposes such as electrical wiring. Therefore, it falls under the category of Telecommunications cable and equipment.' }</t>
+  </si>
+  <si>
+    <t>The offer is for FIDIC Legal Advisory support services regarding the use of the FIDIC Conditions of Contract, the legal interpretation and application of those Conditions, and the best practices of FIDIC Employers in the context of MCCâ€™s and OGCâ€™s review, negotiation, and oversight of MCC-funded programs in eligible countries.' }</t>
+  </si>
+  <si>
+    <t>The product offer is for a parts kit for a Trash Disposal Ball Valve, which is a precision equipment. The offer includes the requirement for testing certification, hydrostatic test, dye penetrant inspection, and non-destructive tests for weld repair, which are all services related to repair and maintenance of precision equipment.' }</t>
+  </si>
+  <si>
+    <t>The product offer is for Hooded Sweatshirts, Imprinted, Delaware Army National Guard. This is a textile product, hence it falls under the Miscellaneous textile articles category.' }</t>
+  </si>
+  <si>
+    <t>The offer is about leasing an office space, which falls under the category of Non-residential property renting or leasing services.' }</t>
+  </si>
+  <si>
+    <t>The product is a set of micro-laryngoscopic instruments, which is a type of medical device. Therefore, it falls under the category of Miscellaneous medical devices and products.' }</t>
+  </si>
+  <si>
+    <t>The text describes a Request for Quotation (RFQ) for the repair of the ODTR item. The RFQ contains the requirements for repair and the contract quality requirements for the ODTR. The Contractor is required to perform all inspection and testing requirements as specified in the original manufacturer's specifications and drawings. The Contractor is responsible for the performance of all inspection requirements as specified herein. The Contractor may use his own or any other facilities suitable for the performance of the inspection requirements specified herein, unless disapproved by the Government. The Government reserves the right to perform any of the inspections set forth in the specification where such inspections are deemed necessary to assure supplies and services conform to prescribed requirements. All items must meet all requirements of this contract/purchase order. The inspection set forth in this specification shall become a part of the Contractor's overall inspection system or quality program. The absence of any inspection requirements shall not relieve the Contractor of the responsibility of assuring that all products or supplies submitted to the Government for acceptance comply with all requirements of the contract/purchase order. Sampling in quality conformance does not authorize submission of known defective material, either indicated or actual, not does it commit the Government to acceptance of defective material. Records of all inspection work by the Contractor shall be kept complete and available to the Government during the performance of contract/purchase order and for a period of 365 calendar days after final delivery of supplies.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is for the Altus Air Force Base Commercial Solutions Opening (CSO). The CSO is for the acquisition of innovative commercial items, technologies, and services, based on a review of proposals by scientific, technological, or other subject-matter expert peers within the Air Force. The Air Force intends to obtain 'innovative' solutions or potential new capabilities that fulfill requirements, close capability gaps, or provide potential technology advancements. This aligns with the category of 'Defence services' as it is directly related to the mission and capabilities of the Air Force.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for a VHF radio set, which is a type of radio transmission apparatus with reception apparatus.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>The product/service offer is for the provision of Elevator Maintenance and Repair Services to individuals who are under the custody and care of the Federal Bureau of Prisons within a secure correctional environment, located at the Metropolitan Detention Center (MDC) at Guaynabo, Puerto Rico.' }</t>
+  </si>
+  <si>
+    <t>The offer is for the Jada System: Vacuum-Induced Hemorrhage Control System for Northern Navajo Medical Center, which is a medical device used to control bleeding. This falls under the category of Medical equipment and supplies.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a 70--PSCU COMPUT TABLET, which is a type of information system.' }</t>
+  </si>
+  <si>
+    <t>The offer is for repair and modification of computers and laptops, which falls under the category of repair and maintenance services of personal computers.' }</t>
+  </si>
+  <si>
+    <t>The offer is about replacing the closed circuit evaporative cooler and sump (basin) evaporative water treatment systems in their entirety and providing closed circuit evaporative cooler and sump (basin) evaporative water treatment systems in the same general area to provide a complete and operational water source heat pump system for Building 350. Therefore, it falls under the category of Construction work for water projects.' }</t>
+  </si>
+  <si>
+    <t>The offer is for the repair and maintenance of a military aircraft part (PLATE,RESILIENT MOU).' }</t>
+  </si>
+  <si>
+    <t>The offer is for a VALVE ASSY, HYTROL, which is a spare part for a military vehicle. This is clear from the description, which mentions that the item is to be physically identified in accordance with MIL-STD-130, REV N, 16 NOV 2012, which is a military standard for marking of military property. Additionally, the description mentions that the item is to be furnished under a contract/purchase order, which further supports the idea that this is a spare part for a military vehicle.' }</t>
+  </si>
+  <si>
+    <t>The product offer is about a plug that needs to be manufactured and designed in accordance with the requirements specified in the ordering data. The offer also includes quality assurance requirements, packaging requirements, and delivery requirements. Therefore, it falls under the category of technical inspection and testing services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for janitorial services, which is a type of cleaning service.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>The product/service offer is about purchasing trucks, which falls under the category of Vehicle purchase.' }</t>
+  </si>
+  <si>
+    <t>The offer is for repair and maintenance services of the ASSY, POWER CONTROL, which is a weapon system component. This is clear from the title and the description of the offer.' }</t>
+  </si>
+  <si>
+    <t>The product is a 30--DR PULLEY BUSH ASSY, which is a mechanical spare part for submarines. The procurement specification contains the requirements for manufacture and the contract quality requirements for the AN/BRA-24 Toughmet Drive Pulley &amp; Bushing Assembly for use on Navy submarines. The supplier is required to perform first article testing/inspection on AN/BRA-24 Toughmet Drive Pulley &amp; Bushing Assembly in accordance with the applicable drawings and their approved first article procedure. The first article inspection shall be made by the cognizant DCMA-QAR at the supplier's and/or subcontractor facility. The supplier shall submit for completed first article unit testing/inspection reports in compliance with the requirements of DI-NDTI-80603, applicable drawings and specifications. The report shall also include a copy of Certified Mill Certification, Certificate of Compliance for Materials and Visual/Dimensional Inspection Report. Government approval of the first article testing/inspection report is required prior to commencement of production units. Therefore, it falls under Technical inspection and testing services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         The contractor is responsible for providing all supervision, materials, labor, equipment, transportation, testing, and storage for this project.         The contractor shall install a new smoke exhaust system, new supply system, and roof replacement to meet the design requirements.         New ducting, electrical, and fire alarm system upgrades will need to be done for the new system.         The contractor will have to coordinate the installation schedule with Durham VA, it is anticipated that all roof replacement will have to be done on weekends.' }</t>
+  </si>
+  <si>
+    <t>The offer is for the repair of NIIN 01-581-2134 for FMS Norway. NIIN 01-581-2134 is a part number for a military aircraft. Therefore, it falls under the category of Repair and maintenance services of military aircrafts, missiles and spacecrafts.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is about a display monitor, which is a type of information system.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>The product/service offer is about the chemical analysis of nitrogen gas cylinders. This is a scientific and technical service that is related to engineering. It is not a detection and analysis apparatus because it is a service, not a device. It is not industrial gases or specialised chemical products because it is a service, not a product. It is not a research, testing and scientific technical simulator because it is not a simulator. It is not installation services of special-purpose machinery and equipment because it is not an installation service. It is not experimental development services because it is not experimental development. It is not miscellaneous fertilisers because it is not a fertiliser. It is not test drilling and boring work because it is not drilling or boring. It is not installation services of laboratory equipment because it is not an installation service.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for the purchase of a Hazardous Storage Container, which falls under the category of Tanks, reservoirs, containers and pressure vessels.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for a framework agreement for the supply of Vending Solutions to Trusts within the NHS. The solutions include cold drinks, snacks and confectionery vending machines, chilled food vending machines, hot food vending machines, hot beverage machines, coffee shop solutions, ward beverage trolleys, water dispensers, reverse vending, smart technology &amp; shop solutions, maintenance and service. These are all types of catering equipment.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>The offer is for Septic Pumping and rental of portable toilets and handwashing stations, which falls under Sewerage management services.' }</t>
+  </si>
+  <si>
+    <t>The offer is about electrical outlets, which are electrical supplies and accessories.' }</t>
+  </si>
+  <si>
+    <t>The title '65+ years' suggests that the offer is related to the age group of 65 years and above. The most appropriate category from the provided list is 'Social services', as it is related to the provision of social welfare and assistance to this age group.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for a 61--POWER SUPPLY, which includes power distribution cables and electrical supplies and accessories for switching or protecting electrical circuits.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>The product offer is for a 58--LASER,SOLID STATE, which is a type of electrical apparatus used for switching or protecting electrical circuits. The offer includes contact information, item unique identification and valuation, higher-level contract quality requirement, wide area workflow payment instructions, Navy use of AbilityOne Support Contractor - Release of Offeror Information, Equal Opportunity, Equal Opportunity for Workers with Disabilities, Buy American-Free Trade Agreements-Balance of Payments Program - Basic, Annual Representations and Certifications, Buy American-Free Trade Agreements-Balance of Payments Program Certificate-Basic, Buy American--Balance of Payments Program, Annual Representations and Certifications, Facsimile Proposals, Notice of Priority Rating for National Defense, Emergency Preparedness, and Energy Program Use, and all contractual documents. These details are not relevant to the categorization of the product offer.' }</t>
+  </si>
+  <si>
+    <t>The offer is for BIL-FUNDED for Replacement of Liebert HVAC Units, Boiler &amp; Control System @ Little Rock ATCT Base Building at Little Rock, AR 72202. The NAICS code for this effort is 238220 'Plumbing, Heating, and Air-Conditioning Contractors' with a size standard of $19M. This clearly indicates that the offer is for Plumbing, Heating, and Air-Conditioning Contractors.' }</t>
+  </si>
+  <si>
+    <t>The offer is about repairing and modifying a solid-state laser, which is a type of weapon system.' }</t>
+  </si>
+  <si>
+    <t>The offer is to renovate a building atrium, which falls under the category of building construction work.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultrasound services are a type of medical imaging service.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for a weight management group support service. This is a physical well-being service as it aims to help people achieve a healthy balanced diet, develop healthier eating habits and embed behaviour change.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>The offer is for a 16-panel assembly, which is a part of a larger system or structure. The description mentions markings in accordance with MIL-STD-130, which is a military standard for marking military property. The requirement is AOG (Aircraft on Ground), which means it needs to be expedited as soon as possible. These factors suggest that the offer is for a construction work related to the oil and gas industry.' }</t>
+  </si>
+  <si>
+    <t>The offer is for the repair of a 16-frequency converter for a military aircraft, missile, or spacecraft. This is evident from the NSN number (7RH 1680 016338686 P8), the P/N (1-002-0102-2498), and the reference to the item as a 'FREQUENCY CONVERTER' in the SOW. Therefore, it falls under the category of repair and maintenance services of military aircrafts, missiles and spacecrafts.' }</t>
+  </si>
+  <si>
+    <t>The offer is for MSG Cook/Food Services, which falls under the category of Canteen services as it involves the provision of food and beverages in a specific location, in this case, the U.S. Embassy in Riyadh, Saudi Arabia.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a Real Estate Development Advisor to provide technical development support to the Council in bringing forwards key development opportunities. This includes detailed knowledge of the North-West real estate market, direct experience of taking sites out to the market to secure development, fundamental understanding of development economics and how these apply to public land being primed for development, evidence of comprehensive experience of negotiating land and property agreements with developers, detailed ability to review and advise the Council on development appraisals, an in-depth understanding of overage agreements, and a capability to critically assess the costs and values supplied by the developer in relation to the overage agreement and to propose a negotiating position for the Council, detailed understanding of the capability of the Council and other public bodies to provide funding to support development schemes (Subsidy Control and the broad principles of public investment).' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for DOME OPTICAL 1420 011804521 MG, which is a type of optical instrument.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>The text mentions a '28--POWER UNIT,GAS TURB' which is a type of gas turbine. This falls under the category of Turbines and motors.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product is a washer, which is an appliance used in the bathroom or kitchen. It is not a cleaning service, building construction work, electrical supplies and accessories, power distribution cables, maintenance services of telecommunications equipment, telecommunications cable and equipment, machines and apparatus with individual functions, repair and maintenance services of hotel and restaurant equipment, repair and maintenance services of weapons and weapon systems, system, storage and content management software package, or wide area network services.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>The product offer is for an interface card, which is an electronic device used to connect two systems or devices together. This is a key component of an information system, which is defined as a collection of hardware, software, data, people, and procedures that work together to provide information needed by an organization. The offer includes details about the card's specifications, marking, and quality assurance, which are all important considerations for information systems. Additionally, the offer mentions the need for a drawing and explanation of any changes to the design, material, servicing, or part number, which are also important considerations for information systems. Therefore, I have categorized this offer as 'Information systems'.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a fan, which is an electrical apparatus used for switching or protecting electrical circuits. The fan is vaneaxial, which is a type of fan that uses vanes to direct the airflow. The fan is also used for cooling and ventilation purposes. The offer also includes various clauses and certifications that are required for government contracts, as well as quality assurance and inspection requirements. The fan is to be manufactured and inspected according to military standards, and the contractor is responsible for the performance of all inspection requirements. The fan is to be physically identified and marked in accordance with MIL-STD-130, REV N, 16 NOV 2012. The fan is to be packaged and marked in accordance with the contract/purchase order schedule. The offer includes ordering information for document references, including military specifications and standards that may be obtained from government sources or the publishers of the applicable societies. The offer also includes a notice to distributors/offerors, stating that consideration for award of contract shall be given only to authorized distributors of the original manufacturer's item represented in this solicitation.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a SYNCHRO ASSEMBLY, which is a type of weapon system. The offer includes requirements for inspection, preservation, packaging, packing and marking, which are all services related to system and support services and installation services of laboratory equipment. The offer also includes quality assurance requirements, which are also related to system and support services.' }</t>
+  </si>
+  <si>
+    <t>The text mentions 'Part is no longer needed' for 017107579 and 017122859, which are PNs (Part Numbers) 1183101 and 1171082 respectively. This implies that these are spare parts that have been ordered but are no longer required. The category 'Mechanical spare parts except engines and engine parts' is the most appropriate category for these spare parts.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is about 'voyager repair' which is a type of 'repair and maintenance services' and it is related to 'motor vehicles and associated equipment'.</t>
+  </si>
+  <si>
+    <t>This offer is for a technical inspection and testing service for the TEST SET,RADIO FREQ. The offer includes a detailed explanation of the calibration procedures for the equipment being offered, which will be considered non-proprietary and the government will have unlimited rights to this data upon contract award. This information is for government use only and will not be disclosed to outside sources. Calibration procedures will include actual procedure details, calibration interval and all tools and test equipment required to perform calibration. Bid Sample Testing shall be conducted prior to the award of this contract/purchase order. Bid SampleTesting shall be required for sources whose models were not previously approved by the Navy. Models submitted for testing must contain any modifications necessary to meet the requirements of the purchace description. The bidder may be required to provide, to a testing facility, the offered model and the accompanying technical manual for evaluation prior to the award of the contract/purchase order.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a Circuit Card Assembly, which is a type of electronic component. The offer includes requirements for inspection, packaging, and marking, as well as quality assurance. This suggests that the offer is for a service related to the design and manufacture of electronic components, which falls under the category of consultative engineering and construction services.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is about a renovation/demolition project in Vero Beach, Florida. The project is estimated to cost between $200,000 and $300,000. The offer includes a site visit and requires vendors to submit questions and quotes by specific dates. The categories that best fit this offer are Building demolition and wrecking work and earthmoving work and Construction work for plants, mining and manufacturing and for buildings relating to the oil and gas industry, as the project involves demolishing and renovating a building.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a 99--BRACKET ASSEMBLY,MO, which is a special-purpose machinery and equipment. The offer also includes the repair and maintenance services of this equipment.' }</t>
+  </si>
+  <si>
+    <t>The text describes the quality assurance requirements for a purchase order/contract, including the order of precedence for technical and quality requirements, the effective issues of cited documents, and the use of document revisions. It also includes instructions for submitting requests for delivery date extensions and waivers/deviations, and requirements for cleaning control and packaging of repair parts. These requirements and instructions are similar to those found in technical inspection and testing services.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is about a tool for AC filter dimension inspection, which is a type of facilities management software package and software package suite.' }</t>
+  </si>
+  <si>
+    <t>The offer is about repairing, testing, and inspecting electronic components and other replacement parts for weapons and weapon systems in accordance with the approved repair/overhaul manual listed in the SOW. Therefore, it falls under the category of Repair and maintenance services of weapons and weapon systems.' }</t>
+  </si>
+  <si>
+    <t>The offer is for Unmanned Aircraft Services, which falls under Aerial and related services.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a 15IN HED PNL MOUNT, which is a piece of machinery. It does not fit into any of the other categories provided.' }</t>
+  </si>
+  <si>
+    <t>The offer is for an inspection of supplies with fixed-price, production lot testing, and wide area workflow payment instructions. It also includes a notice of total small business set-aside, annual representations and certifications, and small business program representations. The order of precedence and effective issues of cited documentation are also provided. The requirements include NAVSUP WSS-MECH CODE N94 additional technical documentation, cleanliness control requirements, and quality assurance requirements. The packaging requirements are specified in MIL-PRF-23199, MIL-DTL-24466, MIL-STD-767, MIL-STD-2041, and other referenced documents. The notes provide explanations for abbreviations, symbols, and codes used in the offer. Overall, the offer is related to information systems and technical inspection and testing services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provision of drainage maintenance for Daresbury Laboratory. This is a plumbing and sanitary work.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is about providing mentors to support pupils who are persistently absent from school. The mentors are expected to understand barriers to the pupils attendance and support the pupil and family to resolve this. This support should be responsive to the individuals needs and may be delivered in the school, or in the pupil's home. Depending on the pupil need, trained practitioners may also be expected to work with external local agencies to ensure all support to a particular family or pupil is aligned and drives towards overcoming attendance barriers. Mentor work could also involve working closely with families to support better engagement in education. The successful Supplier will also need to work with evaluators to evidence the impact of the support throughout the project lifecycle.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>The product/service offer is for NCAUR Water Softener Replacement at the National Center for Agricultural Utilization Research in Peoria, Illinois. The NAICS Code is 238220, Plumbing, Heating, and Air Conditioning Contractors. The magnitude of construction is between $100,000 and $250,000.' }</t>
+  </si>
+  <si>
+    <t>The offer is a Request for Quote (RFQ) from DLA-Maritime, Pearl Harbor for a non-metallic seal. The RFQ is asking for a quote for a specific solicitation number (SPMYM4-24-Q-01990001) and requires the quote to include various business-related information such as price(s), FOB destination, a point of contact (name and phone number), Tax I.D. #, Unique Entity I.D., Cage Code, GSA contract number (if applicable), business size, and payment terms. The RFQ also requires the vendor to clearly indicate their capability to meet all specifications and requirements. The RFQ closes on 12 FEB 2024 @1200 PM. Hawaii Standard Time. Therefore, the offer falls under the category of Miscellaneous business-related services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuse and Recycling Services is a type of Refuse Disposal and Treatment.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for the fabrication, delivery and assembly of Transient Tail Maintenance Stands to surround the KC-135 for use as work platforms for personnel access during maintenance and repair operations for the aircraft at Grissom ARB, IN. The contractor shall provide a complete turn-key on-site application, fabrication, inspection, testing, documentation, training, delivery, tools, equipment installation, maintenance stand assembly, labor and other incidentals necessary to provide this equipment. This is being solicited as Women-Owned Small Business Set Aside for NAICS code 332312, with a size standard of 500 employees or less.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>The offer is for a Global Financial Data and Market/Industry Research Platform, which is a service that provides access to financial data and market research for a certain period of time. This aligns with the definition of a subscription service.' }</t>
+  </si>
+  <si>
+    <t>The offer is for an elbow pipe, which is a type of piping component. Therefore, it falls under the category 'Pipeline, piping, pipes, casing, tubing and related items'.' }</t>
+  </si>
+  <si>
+    <t>The product is a 59-cord assembly, which is an electrical cord used to connect electrical devices. Therefore, it falls under the category of Electrical supplies and accessories.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a specialised chemical product, namely an antiseize compound. It is not a miscellaneous business-related service, office equipment or supply, medical consumable, machine or apparatus, mechanical spare part, installation service, repair and maintenance service, software package, medicinal product, or laboratory equipment installation service.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for a 59--CIRCUIT CARD ASSEMBLY, which is a type of electrical apparatus used for switching or protecting electrical circuits.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>The offer is for a CONT PWR SPLY ASSY (Continuous Power Supply Assembly). The offer includes the requirements for manufacture and the contract quality requirements for the CONT PWR SPLY ASSY. The offer also includes inspection and acceptance requirements, as well as preservation, packaging, packing and marking requirements. The offer is for a buy, and the resultant award of this solicitation will be issued bilaterally, requiring the contractors written acceptance prior to execution. The offer also includes requirements for supply chain traceability documentation, which is required to confirm that the item is from the approved manufacturer and conforms to the technical requirements. The offer also includes requirements for changes in design, material, servicing, or part number, which must be processed through the NAVICP-MECH Contracting Officer. The offer also includes quality assurance requirements, including records of all inspection work by the Contractor. The offer also includes packaging requirements in accordance with the Contract/Purchase Order Schedule and MIL-STD 2073. The offer also includes a notice to distributors/offerors that consideration for award of contract shall be given only to authorized distributors of the original manufacturer's item represented in this solicitation.' }</t>
+  </si>
+  <si>
+    <t>The product offer is for a CIRCUIT BREAKER, which is a type of electrical apparatus used for switching or protecting electrical circuits.' }</t>
+  </si>
+  <si>
+    <t>The Tritium Analysis Lab Fume Hood is a piece of laboratory furniture that provides a controlled environment for the analysis of tritium. It includes a ventilation system that provides extract at 0.56 m3/sec to meet the requirements of BS EN 14175.' }</t>
+  </si>
+  <si>
+    <t>The offer is about highway street tree maintenance, which is a planting and maintenance service of green areas.' }</t>
+  </si>
+  <si>
+    <t>The offer is about tree maintenance, which is a planting and maintenance service of green areas.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service offer is about maintaining a research and office facility for the Christie NHS Foundation Trust, University of Manchester and Cancer Research UK. The service provider will be responsible for maintaining the Paterson Building, Manchester which is a 10 storey 200,000 sq. ft research and office facility. This is a property management service on a contract basis.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>The framework covers servicing, maintenance and installations of passenger and mobility lifts. This is clearly a lift-maintenance service.' }</t>
+  </si>
+  <si>
+    <t>The offer is for the provision of a Feasibility Study and Concept Design (RIBA Stage 2) which falls under Architectural, engineering and planning services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Warrior Programme for RN Serving Personnel is a vocational training service, as it aims to train and develop the skills of RN Serving Personnel.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product/service offer is about provision of civil support services to facilitate nuclear decommissioning. This is related to civil engineering machinery as it is used in construction works for plants, mining and manufacturing and for buildings relating to the oil and gas industry.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t>The offer is about a 3-year water testing and sampling agreement. The agreement is run via Multiquote, which is a platform that allows suppliers to quote for various services. The service being offered here is water testing and sampling, which falls under the category of maintenance services of telecommunications equipment, as it involves regular testing and monitoring of water quality to ensure it is safe for use.' }</t>
+  </si>
+  <si>
+    <t>The offer is for the supply of ISO 6 Cleanroom Facility Design Development for UKRI- STFC. This implies that the offer is for the construction of a cleanroom facility, which falls under the category of Building construction work.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Child Vision Screening Programme falls under the category of Eye care products and corrective lenses because it is a service that aims to identify children aged 4 to 5 years with impaired sight, thereby enabling timely intervention.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>The offer is for the appointment of a consultant to provide employers agent, principal designer and clerk of work services through EN procure consultancy framework Call-off. This falls under construction consultancy services.' }</t>
+  </si>
+  <si>
+    <t>The offer is about a Trauma Informed Pilot Psychological Provision, which is a service that aims to provide psychological support and care for individuals who have experienced trauma. This falls under the category of Physical well-being services as it directly impacts the mental and emotional health of individuals, which in turn affects their overall well-being.' }</t>
+  </si>
+  <si>
+    <t>The Provision Of Special Educational Needs And Disability Parent And Carer Forum (SEND PCF) Service is clearly a special education service as it provides support and resources for parents and carers of children with special educational needs and disabilities.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is about the supply and installation of play and ancillary equipment at Shetland Road Recreation Ground, which is a recreational area.' }</t>
+  </si>
+  <si>
+    <t>The product offer is for the supply and delivery of pressure switches, which are special-purpose machinery used to measure and control the pressure of liquids and gases. Therefore, it falls under the categories of special-purpose machinery and instruments for measuring flow, level and pressure of liquids and gases.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This offer is for a Grant funded service for Substance Misuse Supplemental Treatment and Recovery, which falls under the category of Health and first-aid training services as it is related to the health and well-being of individuals.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t>The offer is for a consultancy service, which is a business and management consultancy service. It is not a research consultancy service because it does not mention research. It is not an administrative service because it does not mention administration. It is not a system and support service because it does not mention systems or support. It is not a construction service because it does not mention construction. It is not an investigation service because it does not mention investigation. It is not a facilities management software package because it does not mention facilities management. It is not a research, testing and scientific technical simulator because it does not mention research, testing or simulators. It is not a database service because it does not mention databases. It is not a system, storage and content management software package because it does not mention systems, storage or content management. It is not a custom software development service because it does not mention custom software development. It is not a training and simulation in aircrafts, missiles and spacecrafts because it does not mention training or simulations in aircrafts, missiles or spacecrafts. It is not a sales, marketing and business intelligence software package because it does not mention sales, marketing or business intelligence. It is not an advisory architectural service because it does not mention architecture. It is not a wide area network service because it does not mention wide area networks.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription Services are a type of Interpretation Services, as they involve converting spoken language into written text, which is a form of interpretation.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product/service offer is about purchasing and maintaining disability lifting apparatus, which is a type of lifting and handling equipment.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for a framework agreement for a minimum of 4 Contractors for each of the two lots. The framework will service a variety of projects ranging in value and specification and call offs will be awarded through a direct award to top ranked Contractors for lot 1 or through a mini competition for larger projects awarded on lot 2, as listed below: Lot 1 for individual projects under 50,000GBP, and Lot 2 for individual projects over the value of 50,000GBP. This is a construction work for plants, mining and manufacturing and for buildings relating to the oil and gas industry.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>The offer is about providing embedded mental health and wellbeing support services to schools across Glasgow and East Renfrewshire. This is clearly a social service as it is about providing support to people in need.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazel Community Primary School (HCPS) is looking for a single supplier for the supply of outsourced catering, including the build of a new on-site kitchen facility. This clearly falls under the category of Catering services.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>The offer is about developing and providing training to support supervisors' development for the pharmacy workforce. This is an educational software package as it is about training. It is also a personnel service as it is about developing the skills of the workforce. It is also a training facility as it is about providing a place for training. It is also an e-learning service as it is about learning online. It is also a personal development training service as it is about developing the skills of individuals.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity Surveying Services is a type of consultative engineering and construction service as it provides expert advice on construction costs and contractual obligations.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t>The offer is about providing a bus service for 5 years, which falls under the category of Special-purpose road passenger-transport services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is about renting washers and dryers for 12 months. This falls under the category of Non-residential property renting or leasing services.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for 100 devices of Microsoft Surface Laptop Go 3, which is a computer-related equipment.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>The offer is about provision of bus service for 5 years, which is a type of transport service.' }</t>
+  </si>
+  <si>
+    <t>The offer is about procuring specialist project management and quantity surveying services from RIBA Stages 0-7 and employer's agents from RIBA Stage 4 onwards for the redevelopment of Star Lane Traveller site. Therefore, it falls under Construction consultancy services.' }</t>
+  </si>
+  <si>
+    <t>This offer is for the Provision of Legal Advisers to Support Future Contracts. It is a direct award under the RM6204 Rail Legal Services Framework. The call-off contract shall commence on the 8th February 2024 and the expiry date will be 31st March 2025 for a period of 13 months. The total contract value will be up to Â£70,000.00 excluding VAT. Therefore, it falls under Legal advisory and representation services.' }</t>
+  </si>
+  <si>
+    <t>The PROMIS service provides over 450 reports across 321 local markets across the UK. These reports provide the VOA with independent in-depth analysis, covering the local economy, demand, supply, rents and yields and cover Offices, Logistics and Retail over an extensive list of locations, to give the VOA advantage when conducting Reval for rating purposes and also for defending the rating list. It can also be used by DVS for investment valuations such as capital gains Tax or accounting valuations. This is a property management service of real estate on a fee or contract basis.' }</t>
+  </si>
+  <si>
+    <t>The offer is about Pen Testing, which is a technical inspection and testing service.' }</t>
+  </si>
+  <si>
+    <t>The Early Learning and Childcare Flexible Framework (Nurseries) is a service that provides early learning and childcare services, which falls under the category of Pre-school education services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product/service offer is about DWP's Net Zero Carbon Strategic Review, which identified that 78% of DWP's emissions are Scope 3 and the majority of which are not currently being captured as part of the Department's GGC or ARA reporting. These findings were presented to ET, where it was agreed that the Department should continue to measure, reduce, and report Scope 3 emissions. Therefore, this product/service offer is categorized as Environmental training services because it aims to train the Department to measure, reduce, and report Scope 3 emissions.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Service Providr is the most appropriate category as the product/service offer is about awarding a Payment Service Provider to take secure payments for the sale of tram tickets.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is about the supply of Domestic 2 wheeled Refuse Bins, which are used for waste disposal and treatment.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plumbing and sanitary works is the most appropriate category because the offer is about repairing the drainage at Avondale Health Centre.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t>The product/service offer is about a framework agreement for the provision of planned investment works, which includes building envelope and communal spaces, kitchen and bathroom replacements, and retrofit and decarbonisation. These works fall under the category of building construction work.' }</t>
+  </si>
+  <si>
+    <t>The offer is about engaging the experience and expertise of those with care experience for the purposes of co-production, consultation, training or other forms of engagement in which a person's lived experience of children's social care is a key part of the expertise they bring. Therefore, it falls under personnel services except placement and supply services.' }</t>
+  </si>
+  <si>
+    <t>The Barracuda Backup System Renewal is a renewal of the current Barracuda arrangement, which is due to expire. The renewal is to be conducted via the NHS Shared Business Services Digital Workplace Solutions framework, which suggests that the Barracuda Backup System is a software package that provides backup and recovery services. Therefore, it can be categorized as a Backup or recovery software package.' }</t>
+  </si>
+  <si>
+    <t>Residential placement is a type of hotel accommodation service.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is about the procurement and through life support of military engineer survey equipment, including ancillaries and spares. This is clearly a defence service.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>The offer is about purchasing renewed BMC licencing until December 2025, based on the specification provided in the scope of services. This is clearly related to information systems as BMC is a software company that provides IT solutions, including software for IT service management, automation, cloud management, and more.' }</t>
+  </si>
+  <si>
+    <t>Electronic Components can be categorized as Electrical apparatus for switching or protecting electrical circuits and Electrical supplies and accessories because they are used to switch or protect electrical circuits and are also considered as electrical supplies and accessories.' }</t>
+  </si>
+  <si>
+    <t>The offer is about providing a cleaning service for vehicles, which falls under the 'Repair and maintenance services of vehicles' category.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for FENO Machines, which are machines with individual functions.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>The offer is about servicing and repairing heating appliances and installations, which falls under the category of 'Repair and maintenance services of central heating'.' }</t>
+  </si>
+  <si>
+    <t>The offer is about undertaking a planned programme of cyclical periodic fixed wire inspection, testing and certification to council owned, residential properties located in Derbyshire and the High Peak area, including remedial repairs required to installations detected as result of the Inspection. In addition to this requirement is the installation of hard wired smoke alarms and upgrading of electrical power supply to radon fans. Therefore, it falls under the category of Electrical installation work.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for the provision of Cleaning services for Equitas Academies Trust.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t>The offer is about refurbishing and upgrading an existing building to facilitate the installation of a second MRI scanner at Lincoln County Hospital. This is a building construction work.' }</t>
+  </si>
+  <si>
+    <t>This offer is about helping SMEs reduce their carbon footprint and supporting the Council's aim to be carbon neutral by 2040. Therefore, it falls under the category of Environmental protection.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medical consumables are products that are used in the medical field and are not intended for long-term use. Nicotine Replacement Therapy (NRT) products fall under this category as they are used to help people quit smoking and are not intended for long-term use.' '</t>
+  </si>
+  <si>
+    <t>The offer is for a CCTV Maintenance Service Contract, which falls under the category of Repair and maintenance services of security equipment.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The contract is for Fame and Orbis Licenses, which are information systems.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The title of the offer is 34862 - ALLEXTON DAY NURSERY and the description is TAXI SERVICES. Therefore, it is a taxi service.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>The service offer is about supporting sex workers to access the services they need to obtain and retain stable housing, access drug services and access and retain drug substitution prescriptions, access and retain health care at an early rather than acute stage thereby enabling them to exit the sex work industry. It also aims to reduce the number of children born to this cohort and where the individual becomes pregnant to support them to either access a termination, engage with social care to keep their child or through the child removal process. Additionally, the service aims to prevent and control outbreaks of infectious disease such as Tuberculosis and Sexually Transmitted Infections. The service also aims to enable sex workers to recognise that they are victims of modern slavery and enabling them to provide police intelligence to identify modern slavery rings and provide court evidence where relevant. All these activities fall under the purview of social work services.' }</t>
+  </si>
+  <si>
+    <t>The offer is for a software and hardware license and warranty for GridION sequencing instrument for Cefas laboratory. The GridION sequencing instrument is used for DNA sequencing, which is an analytical process. Therefore, the offer falls under the category of Analytical, scientific, mathematical or forecasting software package.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapping and Modelling of Critical Loads and Critical Levels Exceedance 2020-24 Extension is an environmental protection service as it deals with the monitoring and management of the environment and its resources.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>Black Park, Wexham is a location. Develop Design Detail Modular Build is a service offer. The service offer is related to building construction. Therefore, it is categorized as Building construction work.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for a weight management group support service, which is a physical well-being service.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service offer is about providing support to community audiology patients within North East Essex. It does not fit into any of the other categories provided.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
+  </si>
+  <si>
+    <t>The product/service offer is about the treatment and disposal of sewage sludge (bioresources) which is directly related to sewerage management services.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for miscellaneous adaptations, which can be categorized as miscellaneous engineering services as it involves the installation of through floor lift, wetroom and modular ramps.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The title of the offer is 34867- HOME TO SAMWORTH ACADEMY and the description is TAXI SERVICES. Therefore, it is a taxi service.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>The product/service offer is for a specialist stop smoking service, which falls under the category of Physical well-being services as it aims to improve the health of individuals by helping them quit smoking.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFBI requires the supply, delivery, and commissioning of the equipment. Warranty, servicing and reactive repair details are necessary requirements. On-site training in the operation of the supplied system is also required.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                           </t>
+  </si>
+  <si>
+    <t>The offer is for a Leadership and Management Development Programme, which is a type of vocational training. The provider is expected to deliver the nationally accredited Level 5 Coaching and Mentoring programme, which is also a type of vocational training.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITT for Projects is a service offer that is related to information systems as it is a service that provides information technology solutions for projects.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t>The title of the offer is '34859 - MOSAIC' and the description is 'TAXI SERVICES'. The title is not descriptive enough to categorize the offer, but the description clearly states that it is a taxi service. Therefore, the offer is categorized as 'Taxi services'.' }</t>
+  </si>
+  <si>
+    <t>ITT for Project 10105431 is an offer for a project, which is a type of information system. It is not a consultancy service, administrative service, construction work, investigation service, machine, software package, training, public security, law and order service, or sales, marketing and business intelligence software package.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service offer is about cleaning bins onsite, which is a cleaning service.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>The offer is for the procurement of a multi-lot contract for provision of cleaning services for a maximum of 7 years across LACS estate.' }</t>
+  </si>
+  <si>
+    <t>The tender is for clerk of works services, which involves inspecting construction works for domestic housing. It is essential that companies effectively represent the interests of Selwood Housing Society Limited in development projects ensuring the quality of materials and work are in line with required standards and specifications. The successful supplier will be responsible for maintaining trust and communication with the clients or key stakeholders who are responsible for financing construction projects.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This offer is a request for information about Integrated Asset Management System solutions available on the market. It covers a broad range of Highways and Environment operational and asset management functions. The information returned will enable Cornwall Council to develop a business proposal. This Soft Market Assessment exercise will form no commercial commitment with responding parties and participation in this Soft Market Assessment will not prejudice suppliers participating in any future procurement. This is not a formal tender document. Therefore, the offer is categorized as Information systems, System and support services, Database services, and System, storage and content management software package.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product/service offer aims to challenge the attitudes and behaviours that perpetuate gender-based abuse and violence against women and girls in all its forms - from street harassment to the most serious of crimes - and reach across Greater Manchester's diverse communities and cultures. The successful agency will be asked to create and deliver a major, high-profile campaign including research and insight; production of digital and physical materials; and measurement and evaluation, for an overall approximate cost of Â£150,000 to be rolled out across Greater Manchester starting early in Spring 2024 and running over a period of up to 18 months.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>The HIOWC HR Case Management System is a software system that manages HR cases, which falls under the category of Information systems.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITT for Projects is a service offer that is related to information systems as it is a request for proposals for IT services for projects.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITT for Project 10102820 is a request for information technology and telecommunications for a specific project. It is a service offer for information systems.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-Craven Arms: TPPL Connexus HCC Contract Hire Lot 2 - Contract Hire of Up to 140 x LCVs (17030) is categorized as 'Hire of goods-transport vehicles with driver' because it is a contract hire of up to 140 light commercial vehicles (LCVs).' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Audio Visual Unit Vehicle is a vehicle equipped with television and audio-visual equipment for the purpose of providing audio-visual services.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The product/service offer is about installing grab rails, external metal handrails, etc. These are types of fencing and safety equipment.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+  </si>
+  <si>
+    <t>ITT for Project 10105019 is an offer for a project, which is an information technology task. Therefore, it can be categorized as Information systems.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is about the supply, delivery, warranty and support of Tri-Axial Sensors. Tri-Axial Sensors are used to measure acceleration in three axes, and are used in various applications such as vibration monitoring, motion tracking, and structural health monitoring. These sensors are typically connected to a data acquisition system or a computer for data processing and analysis. Therefore, the product/service offer falls under the category of Information systems.' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The offer is for the supply, installation and commission of UDC - Universal Digital Composer devices and related services for their on-going operation. The UDC devices are telecommunications equipment.' }                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t>ITT stands for Invitation to Tender, which is a process of selecting a contractor for a project. ITT for Projects is a service that helps companies to find contractors for their projects. Therefore, it falls under the category of Information Systems, as it is a system that helps to manage information related to the process of selecting contractors for projects.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer is about a cleaning contract for Buckley Town Council Offices &amp; Buckley Public Conveniences. The contract includes daily, weekly, monthly and quarterly cleaning in line with Cleaning Schedule 1 for Buckley Town Council Offices and Cleaning Schedule 2 for Buckley Public Conveniences. The Contractor is expected to adhere to all relevant health and safety legislation and best practice guidance. The Contractor is to be responsible for the health and safety of its staff while undertaking duties, and to be appropriately insured. The Contractor will carry out risk assessments and provide adequate PPE as appropriate. The Contractor is required to hold all necessary up-to-date insurance policies. The Contractor will use its own equipment and materials; the Contractor shall be authorised to use the equipment, however, any equipment provided by the Contractor for use under the auspices of this contract shall be the responsibility of the Contractor to maintain and safeguard throughout the usage of the equipment.  The equipment, when used, shall be covered by relevant insurance by the Contractor.' }</t>
+  </si>
+  <si>
+    <t>Flatwork is a type of construction work that involves the creation of horizontal surfaces, such as sidewalks. Truax Park Apartments concrete flatwork (Sidewalks) is an offer for the construction of sidewalks, which falls under the category of Flatwork.' }</t>
+  </si>
+  <si>
+    <t>The product/service offer focuses on individuals who have health and wellbeing needs. This includes physical and/or mental health needs. The provider will be expected to provide employment support tailored to support participants to improve their health and wellbeing. Providers should focus their resources on ensuring that the individuals access health and wellbeing support during their journey into work as well as receiving support from the provider to access benefits and services suitable for them.' }</t>
   </si>
 </sst>
 </file>
@@ -3486,7 +4320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3502,6 +4336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3533,7 +4373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3545,6 +4385,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3825,10 +4668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3838,14 +4681,14 @@
     <col min="3" max="3" width="28" style="2" customWidth="1"/>
     <col min="4" max="4" width="37" style="2" customWidth="1"/>
     <col min="5" max="5" width="40" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="46" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="46" style="4" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>831</v>
       </c>
@@ -3861,14 +4704,14 @@
       <c r="E1" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>943</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>946</v>
@@ -3890,7 +4733,13 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>836</v>
       </c>
     </row>
@@ -3910,11 +4759,17 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3930,11 +4785,17 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3949,6 +4810,12 @@
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -3967,7 +4834,13 @@
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>839</v>
       </c>
     </row>
@@ -3987,7 +4860,13 @@
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>840</v>
       </c>
     </row>
@@ -4007,6 +4886,12 @@
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -4024,7 +4909,13 @@
       <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>841</v>
       </c>
     </row>
@@ -4044,11 +4935,17 @@
       <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +4961,13 @@
       <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>843</v>
       </c>
     </row>
@@ -4084,6 +4987,12 @@
       <c r="E12" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4101,7 +5010,13 @@
       <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>844</v>
       </c>
     </row>
@@ -4121,6 +5036,12 @@
       <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4138,7 +5059,13 @@
       <c r="E15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>845</v>
       </c>
     </row>
@@ -4158,11 +5085,17 @@
       <c r="E16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -4178,11 +5111,17 @@
       <c r="E17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -4198,11 +5137,17 @@
       <c r="E18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -4218,11 +5163,17 @@
       <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -4238,8 +5189,14 @@
       <c r="E20" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -4255,11 +5212,17 @@
       <c r="E21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
@@ -4275,11 +5238,17 @@
       <c r="E22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -4295,11 +5264,17 @@
       <c r="E23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -4315,11 +5290,17 @@
       <c r="E24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
@@ -4335,11 +5316,17 @@
       <c r="E25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>119</v>
       </c>
@@ -4355,11 +5342,17 @@
       <c r="E26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>124</v>
       </c>
@@ -4375,8 +5368,14 @@
       <c r="E27" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>129</v>
       </c>
@@ -4392,11 +5391,17 @@
       <c r="E28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>133</v>
       </c>
@@ -4412,11 +5417,17 @@
       <c r="E29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
@@ -4432,11 +5443,17 @@
       <c r="E30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
@@ -4452,8 +5469,14 @@
       <c r="E31" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>145</v>
       </c>
@@ -4469,11 +5492,17 @@
       <c r="E32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
@@ -4489,11 +5518,17 @@
       <c r="E33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
@@ -4509,11 +5544,17 @@
       <c r="E34" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
@@ -4529,11 +5570,17 @@
       <c r="E35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>162</v>
       </c>
@@ -4549,11 +5596,17 @@
       <c r="E36" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>166</v>
       </c>
@@ -4569,11 +5622,17 @@
       <c r="E37" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>170</v>
       </c>
@@ -4589,11 +5648,17 @@
       <c r="E38" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>175</v>
       </c>
@@ -4609,11 +5674,17 @@
       <c r="E39" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>179</v>
       </c>
@@ -4629,11 +5700,17 @@
       <c r="E40" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
@@ -4649,11 +5726,17 @@
       <c r="E41" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>189</v>
       </c>
@@ -4669,11 +5752,17 @@
       <c r="E42" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>194</v>
       </c>
@@ -4689,11 +5778,17 @@
       <c r="E43" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>199</v>
       </c>
@@ -4709,11 +5804,17 @@
       <c r="E44" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>204</v>
       </c>
@@ -4729,11 +5830,17 @@
       <c r="E45" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>209</v>
       </c>
@@ -4749,11 +5856,17 @@
       <c r="E46" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>213</v>
       </c>
@@ -4769,11 +5882,17 @@
       <c r="E47" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>217</v>
       </c>
@@ -4789,11 +5908,17 @@
       <c r="E48" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>222</v>
       </c>
@@ -4809,11 +5934,17 @@
       <c r="E49" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>226</v>
       </c>
@@ -4829,11 +5960,17 @@
       <c r="E50" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>231</v>
       </c>
@@ -4849,11 +5986,17 @@
       <c r="E51" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>235</v>
       </c>
@@ -4869,11 +6012,17 @@
       <c r="E52" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>240</v>
       </c>
@@ -4889,11 +6038,17 @@
       <c r="E53" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>243</v>
       </c>
@@ -4909,11 +6064,17 @@
       <c r="E54" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>248</v>
       </c>
@@ -4929,11 +6090,17 @@
       <c r="E55" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>251</v>
       </c>
@@ -4949,11 +6116,17 @@
       <c r="E56" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>255</v>
       </c>
@@ -4969,11 +6142,17 @@
       <c r="E57" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>259</v>
       </c>
@@ -4989,8 +6168,14 @@
       <c r="E58" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F58" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>264</v>
       </c>
@@ -5006,11 +6191,17 @@
       <c r="E59" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>268</v>
       </c>
@@ -5026,11 +6217,17 @@
       <c r="E60" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>272</v>
       </c>
@@ -5046,11 +6243,17 @@
       <c r="E61" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>276</v>
       </c>
@@ -5066,8 +6269,14 @@
       <c r="E62" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="F62" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>281</v>
       </c>
@@ -5083,11 +6292,17 @@
       <c r="E63" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>285</v>
       </c>
@@ -5103,11 +6318,17 @@
       <c r="E64" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>290</v>
       </c>
@@ -5123,11 +6344,17 @@
       <c r="E65" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>295</v>
       </c>
@@ -5143,11 +6370,17 @@
       <c r="E66" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>300</v>
       </c>
@@ -5163,11 +6396,17 @@
       <c r="E67" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>304</v>
       </c>
@@ -5183,11 +6422,17 @@
       <c r="E68" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>309</v>
       </c>
@@ -5203,11 +6448,17 @@
       <c r="E69" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>314</v>
       </c>
@@ -5223,11 +6474,17 @@
       <c r="E70" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>318</v>
       </c>
@@ -5243,11 +6500,17 @@
       <c r="E71" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>322</v>
       </c>
@@ -5263,8 +6526,14 @@
       <c r="E72" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F72" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>326</v>
       </c>
@@ -5280,11 +6549,17 @@
       <c r="E73" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>329</v>
       </c>
@@ -5300,11 +6575,17 @@
       <c r="E74" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>334</v>
       </c>
@@ -5320,11 +6601,17 @@
       <c r="E75" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>339</v>
       </c>
@@ -5340,11 +6627,17 @@
       <c r="E76" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>343</v>
       </c>
@@ -5360,11 +6653,17 @@
       <c r="E77" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>346</v>
       </c>
@@ -5380,11 +6679,17 @@
       <c r="E78" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>349</v>
       </c>
@@ -5400,8 +6705,14 @@
       <c r="E79" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F79" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>353</v>
       </c>
@@ -5417,11 +6728,17 @@
       <c r="E80" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>358</v>
       </c>
@@ -5437,11 +6754,17 @@
       <c r="E81" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>363</v>
       </c>
@@ -5457,11 +6780,17 @@
       <c r="E82" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>367</v>
       </c>
@@ -5477,11 +6806,17 @@
       <c r="E83" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>370</v>
       </c>
@@ -5497,11 +6832,17 @@
       <c r="E84" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>374</v>
       </c>
@@ -5517,8 +6858,14 @@
       <c r="E85" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F85" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>378</v>
       </c>
@@ -5534,11 +6881,17 @@
       <c r="E86" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>382</v>
       </c>
@@ -5554,8 +6907,14 @@
       <c r="E87" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F87" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>386</v>
       </c>
@@ -5571,11 +6930,17 @@
       <c r="E88" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>391</v>
       </c>
@@ -5591,11 +6956,17 @@
       <c r="E89" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>394</v>
       </c>
@@ -5611,11 +6982,17 @@
       <c r="E90" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>397</v>
       </c>
@@ -5631,11 +7008,17 @@
       <c r="E91" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>400</v>
       </c>
@@ -5651,11 +7034,17 @@
       <c r="E92" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H92" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>403</v>
       </c>
@@ -5671,11 +7060,17 @@
       <c r="E93" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>407</v>
       </c>
@@ -5691,11 +7086,17 @@
       <c r="E94" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H94" s="4" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>412</v>
       </c>
@@ -5711,11 +7112,17 @@
       <c r="E95" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>416</v>
       </c>
@@ -5731,11 +7138,17 @@
       <c r="E96" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>420</v>
       </c>
@@ -5751,11 +7164,17 @@
       <c r="E97" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>423</v>
       </c>
@@ -5771,11 +7190,17 @@
       <c r="E98" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>426</v>
       </c>
@@ -5791,11 +7216,17 @@
       <c r="E99" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>431</v>
       </c>
@@ -5811,11 +7242,17 @@
       <c r="E100" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>435</v>
       </c>
@@ -5831,11 +7268,17 @@
       <c r="E101" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>440</v>
       </c>
@@ -5851,11 +7294,17 @@
       <c r="E102" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H102" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>444</v>
       </c>
@@ -5871,11 +7320,17 @@
       <c r="E103" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H103" s="4" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>447</v>
       </c>
@@ -5891,11 +7346,17 @@
       <c r="E104" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>451</v>
       </c>
@@ -5911,8 +7372,14 @@
       <c r="E105" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F105" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>456</v>
       </c>
@@ -5928,11 +7395,17 @@
       <c r="E106" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>461</v>
       </c>
@@ -5948,11 +7421,17 @@
       <c r="E107" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>464</v>
       </c>
@@ -5968,11 +7447,17 @@
       <c r="E108" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>468</v>
       </c>
@@ -5988,11 +7473,17 @@
       <c r="E109" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>472</v>
       </c>
@@ -6008,11 +7499,17 @@
       <c r="E110" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>475</v>
       </c>
@@ -6028,11 +7525,17 @@
       <c r="E111" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>478</v>
       </c>
@@ -6048,11 +7551,17 @@
       <c r="E112" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>482</v>
       </c>
@@ -6068,11 +7577,17 @@
       <c r="E113" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>486</v>
       </c>
@@ -6088,11 +7603,17 @@
       <c r="E114" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>490</v>
       </c>
@@ -6108,11 +7629,17 @@
       <c r="E115" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>495</v>
       </c>
@@ -6128,11 +7655,17 @@
       <c r="E116" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H116" s="4" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>499</v>
       </c>
@@ -6148,8 +7681,14 @@
       <c r="E117" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F117" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>503</v>
       </c>
@@ -6165,11 +7704,17 @@
       <c r="E118" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H118" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>506</v>
       </c>
@@ -6185,11 +7730,17 @@
       <c r="E119" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H119" s="4" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>511</v>
       </c>
@@ -6205,11 +7756,17 @@
       <c r="E120" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H120" s="4" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>515</v>
       </c>
@@ -6225,11 +7782,17 @@
       <c r="E121" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H121" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>520</v>
       </c>
@@ -6245,11 +7808,17 @@
       <c r="E122" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H122" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>524</v>
       </c>
@@ -6265,11 +7834,17 @@
       <c r="E123" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H123" s="4" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>529</v>
       </c>
@@ -6285,8 +7860,14 @@
       <c r="E124" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="F124" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>533</v>
       </c>
@@ -6302,11 +7883,17 @@
       <c r="E125" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H125" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>538</v>
       </c>
@@ -6322,11 +7909,17 @@
       <c r="E126" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H126" s="4" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>543</v>
       </c>
@@ -6342,8 +7935,14 @@
       <c r="E127" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="F127" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>547</v>
       </c>
@@ -6359,11 +7958,17 @@
       <c r="E128" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H128" s="4" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>552</v>
       </c>
@@ -6379,11 +7984,17 @@
       <c r="E129" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H129" s="4" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>556</v>
       </c>
@@ -6399,11 +8010,17 @@
       <c r="E130" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H130" s="4" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>560</v>
       </c>
@@ -6419,11 +8036,17 @@
       <c r="E131" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H131" s="4" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>564</v>
       </c>
@@ -6439,11 +8062,17 @@
       <c r="E132" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H132" s="4" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>569</v>
       </c>
@@ -6459,8 +8088,14 @@
       <c r="E133" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+      <c r="F133" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>572</v>
       </c>
@@ -6476,11 +8111,17 @@
       <c r="E134" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H134" s="4" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>575</v>
       </c>
@@ -6496,11 +8137,17 @@
       <c r="E135" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H135" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>579</v>
       </c>
@@ -6516,11 +8163,17 @@
       <c r="E136" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H136" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>583</v>
       </c>
@@ -6536,11 +8189,17 @@
       <c r="E137" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H137" s="4" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>588</v>
       </c>
@@ -6556,8 +8215,14 @@
       <c r="E138" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="F138" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>593</v>
       </c>
@@ -6573,11 +8238,17 @@
       <c r="E139" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H139" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>597</v>
       </c>
@@ -6593,11 +8264,17 @@
       <c r="E140" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H140" s="4" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>601</v>
       </c>
@@ -6613,11 +8290,17 @@
       <c r="E141" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H141" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>605</v>
       </c>
@@ -6633,11 +8316,17 @@
       <c r="E142" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H142" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>609</v>
       </c>
@@ -6653,11 +8342,17 @@
       <c r="E143" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H143" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>613</v>
       </c>
@@ -6673,11 +8368,17 @@
       <c r="E144" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H144" s="4" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>617</v>
       </c>
@@ -6693,11 +8394,17 @@
       <c r="E145" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H145" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>622</v>
       </c>
@@ -6713,11 +8420,17 @@
       <c r="E146" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H146" s="4" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>627</v>
       </c>
@@ -6733,11 +8446,17 @@
       <c r="E147" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H147" s="4" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>632</v>
       </c>
@@ -6753,11 +8472,17 @@
       <c r="E148" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H148" s="4" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>635</v>
       </c>
@@ -6773,11 +8498,17 @@
       <c r="E149" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H149" s="4" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>638</v>
       </c>
@@ -6793,11 +8524,17 @@
       <c r="E150" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H150" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>643</v>
       </c>
@@ -6813,11 +8550,17 @@
       <c r="E151" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H151" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>646</v>
       </c>
@@ -6833,11 +8576,17 @@
       <c r="E152" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H152" s="4" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>650</v>
       </c>
@@ -6853,11 +8602,17 @@
       <c r="E153" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H153" s="4" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>654</v>
       </c>
@@ -6873,11 +8628,17 @@
       <c r="E154" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H154" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>658</v>
       </c>
@@ -6893,11 +8654,17 @@
       <c r="E155" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="F155" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H155" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>662</v>
       </c>
@@ -6913,11 +8680,17 @@
       <c r="E156" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="F156" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H156" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>667</v>
       </c>
@@ -6933,11 +8706,17 @@
       <c r="E157" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F157" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H157" s="4" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>671</v>
       </c>
@@ -6953,8 +8732,14 @@
       <c r="E158" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="F158" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>675</v>
       </c>
@@ -6970,11 +8755,17 @@
       <c r="E159" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="F159" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H159" s="4" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>679</v>
       </c>
@@ -6990,11 +8781,17 @@
       <c r="E160" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H160" s="4" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>684</v>
       </c>
@@ -7010,11 +8807,17 @@
       <c r="E161" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H161" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>687</v>
       </c>
@@ -7030,11 +8833,17 @@
       <c r="E162" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="F162" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H162" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>691</v>
       </c>
@@ -7050,11 +8859,17 @@
       <c r="E163" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F163" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H163" s="4" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>695</v>
       </c>
@@ -7070,11 +8885,17 @@
       <c r="E164" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="F164" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H164" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>698</v>
       </c>
@@ -7090,11 +8911,17 @@
       <c r="E165" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="F165" s="4" t="s">
+      <c r="F165" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H165" s="4" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>703</v>
       </c>
@@ -7110,8 +8937,14 @@
       <c r="E166" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F166" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>707</v>
       </c>
@@ -7127,11 +8960,17 @@
       <c r="E167" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="F167" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H167" s="4" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>712</v>
       </c>
@@ -7147,11 +8986,17 @@
       <c r="E168" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F168" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H168" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>715</v>
       </c>
@@ -7167,11 +9012,17 @@
       <c r="E169" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="F169" s="4" t="s">
+      <c r="F169" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H169" s="4" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>719</v>
       </c>
@@ -7187,11 +9038,17 @@
       <c r="E170" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="F170" s="4" t="s">
+      <c r="F170" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H170" s="4" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>723</v>
       </c>
@@ -7207,11 +9064,17 @@
       <c r="E171" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F171" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H171" s="4" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>727</v>
       </c>
@@ -7227,11 +9090,17 @@
       <c r="E172" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F172" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H172" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>730</v>
       </c>
@@ -7247,8 +9116,14 @@
       <c r="E173" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="F173" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>734</v>
       </c>
@@ -7264,8 +9139,14 @@
       <c r="E174" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="F174" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>737</v>
       </c>
@@ -7281,11 +9162,17 @@
       <c r="E175" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="F175" s="4" t="s">
+      <c r="F175" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H175" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>742</v>
       </c>
@@ -7301,11 +9188,17 @@
       <c r="E176" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F176" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H176" s="4" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>745</v>
       </c>
@@ -7321,11 +9214,17 @@
       <c r="E177" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="F177" s="4" t="s">
+      <c r="F177" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H177" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>749</v>
       </c>
@@ -7341,11 +9240,17 @@
       <c r="E178" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F178" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H178" s="4" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>752</v>
       </c>
@@ -7361,11 +9266,17 @@
       <c r="E179" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F179" s="4" t="s">
+      <c r="F179" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H179" s="4" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>756</v>
       </c>
@@ -7381,11 +9292,17 @@
       <c r="E180" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="F180" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H180" s="4" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>760</v>
       </c>
@@ -7401,11 +9318,17 @@
       <c r="E181" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="F181" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H181" s="4" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>763</v>
       </c>
@@ -7421,11 +9344,17 @@
       <c r="E182" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="F182" s="4" t="s">
+      <c r="F182" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H182" s="4" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>766</v>
       </c>
@@ -7441,11 +9370,17 @@
       <c r="E183" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="F183" s="4" t="s">
+      <c r="F183" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H183" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>769</v>
       </c>
@@ -7461,11 +9396,17 @@
       <c r="E184" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="F184" s="4" t="s">
+      <c r="F184" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H184" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>772</v>
       </c>
@@ -7481,11 +9422,17 @@
       <c r="E185" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F185" s="4" t="s">
+      <c r="F185" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H185" s="4" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>776</v>
       </c>
@@ -7501,11 +9448,17 @@
       <c r="E186" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="F186" s="4" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F186" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>780</v>
       </c>
@@ -7521,11 +9474,14 @@
       <c r="E187" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="F187" s="4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="F187" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>785</v>
       </c>
@@ -7541,8 +9497,17 @@
       <c r="E188" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="F188" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>788</v>
       </c>
@@ -7558,11 +9523,17 @@
       <c r="E189" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="F189" s="4" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="F189" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>791</v>
       </c>
@@ -7578,11 +9549,17 @@
       <c r="E190" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="F190" s="4" t="s">
+      <c r="F190" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H190" s="4" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>794</v>
       </c>
@@ -7598,11 +9575,17 @@
       <c r="E191" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="F191" s="4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="F191" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>798</v>
       </c>
@@ -7618,11 +9601,17 @@
       <c r="E192" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="F192" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>803</v>
       </c>
@@ -7638,11 +9627,17 @@
       <c r="E193" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="F193" s="4" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="F193" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>807</v>
       </c>
@@ -7658,11 +9653,17 @@
       <c r="E194" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="F194" s="4" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="F194" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>810</v>
       </c>
@@ -7678,11 +9679,17 @@
       <c r="E195" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="F195" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>814</v>
       </c>
@@ -7698,11 +9705,17 @@
       <c r="E196" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="F196" s="4" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="F196" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>817</v>
       </c>
@@ -7718,11 +9731,17 @@
       <c r="E197" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="F197" s="4" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F197" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>820</v>
       </c>
@@ -7738,11 +9757,17 @@
       <c r="E198" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="F198" s="4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="F198" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>823</v>
       </c>
@@ -7758,11 +9783,14 @@
       <c r="E199" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="F199" s="4" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="F199" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>826</v>
       </c>
@@ -7778,13 +9806,18 @@
       <c r="E200" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F201" s="4" t="s">
+      <c r="F200" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H200" s="4" t="s">
         <v>942</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I200" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K008000 INTERNAL &amp; TRUSTED 3rd PARTIES</oddFooter>
